--- a/biology/Médecine/Je_vous_demande_le_droit_de_mourir/Je_vous_demande_le_droit_de_mourir.xlsx
+++ b/biology/Médecine/Je_vous_demande_le_droit_de_mourir/Je_vous_demande_le_droit_de_mourir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Je vous demande le droit de mourir aux éditions Michel Lafon est le livre posthume de Vincent Humbert, écrit par Frédéric Veille et vendu à plus de 300 000 exemplaires. Il a été adapté à la télévision en 2007 par TF1 sous forme d'un téléfilm diffusé sous le titre Marie Humbert, le secret d'une mère.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Vincent Humbert est victime d'un accident de la route en septembre 2000. Il reste six mois dans le coma. L'accident le laisse tétraplégique, aveugle et muet, mais lucide et donc en mesure de ressentir souffrance et isolement.
 "Monsieur Chirac, je vous demande le droit de mourir..."
